--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BC/10/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BC/10/seed1/result_data_KNN.xlsx
@@ -499,7 +499,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>7.334000000000001</v>
+        <v>7.593000000000001</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -550,10 +550,10 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>4.956</v>
+        <v>5.024</v>
       </c>
       <c r="C7" t="n">
-        <v>-13.524</v>
+        <v>-13.208</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-13.67</v>
+        <v>-13.491</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -703,7 +703,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>5.928</v>
+        <v>5.235</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -791,7 +791,7 @@
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.63</v>
+        <v>-12.518</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -808,7 +808,7 @@
         <v>8.81</v>
       </c>
       <c r="C22" t="n">
-        <v>-12.304</v>
+        <v>-12.961</v>
       </c>
       <c r="D22" t="n">
         <v>-6.8</v>
@@ -825,7 +825,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.028</v>
+        <v>-12.223</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -907,7 +907,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.188000000000001</v>
+        <v>5.709000000000001</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.452</v>
+        <v>5.065</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -975,7 +975,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>5.863999999999999</v>
+        <v>6.387999999999999</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -1012,7 +1012,7 @@
         <v>6.92</v>
       </c>
       <c r="C34" t="n">
-        <v>-10.996</v>
+        <v>-11.997</v>
       </c>
       <c r="D34" t="n">
         <v>-7.27</v>
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>8.870000000000001</v>
+        <v>9.044999999999998</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1165,7 +1165,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>-13.542</v>
+        <v>-13.516</v>
       </c>
       <c r="D43" t="n">
         <v>-6.95</v>
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.714</v>
+        <v>-13.03</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1284,7 +1284,7 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-13.902</v>
+        <v>-13.812</v>
       </c>
       <c r="D50" t="n">
         <v>-8.029999999999999</v>
@@ -1301,7 +1301,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.922</v>
+        <v>-11.276</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>6.462000000000001</v>
+        <v>5.546</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>5.144</v>
+        <v>5.093000000000001</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1553,10 +1553,10 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>5.122</v>
+        <v>5.054</v>
       </c>
       <c r="C66" t="n">
-        <v>-11.18</v>
+        <v>-10.883</v>
       </c>
       <c r="D66" t="n">
         <v>-7.15</v>
@@ -1573,7 +1573,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-12.002</v>
+        <v>-11.395</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1777,7 +1777,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>-11.914</v>
+        <v>-12.117</v>
       </c>
       <c r="D79" t="n">
         <v>-4.8</v>
@@ -1862,7 +1862,7 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-13.328</v>
+        <v>-13.72</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1998,7 +1998,7 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-11.34</v>
+        <v>-11.139</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2083,7 +2083,7 @@
         <v>5.08</v>
       </c>
       <c r="C97" t="n">
-        <v>-13.304</v>
+        <v>-12.349</v>
       </c>
       <c r="D97" t="n">
         <v>-7.59</v>
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.196</v>
+        <v>5.587999999999999</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
